--- a/medicine/Psychotrope/Ritter_St.Georgen-Brauerei/Ritter_St.Georgen-Brauerei.xlsx
+++ b/medicine/Psychotrope/Ritter_St.Georgen-Brauerei/Ritter_St.Georgen-Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Ritter St.Georgen-Brauerei est une brasserie à Nennslingen, en Allemagne.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1654, le brasseur Georg Engelhardt fonde la brasserie. En 1678, Michael Korner la reprend puis en 1704 Michael Engelhardt. En 1726, le maître brasseur Johann Wilhelm Satzinger de Pappenheim achète l'entreprise. En 1748, Michael Treiber la prend en charge et donne le nom de Wirt zum Ritter St. Georg. En 1767, son fils Friedrich reprend la brasserie, en 1778 il la revend à Johann Daniel Gloßner. Son fils, qui s'appelle également Johann Daniel, reprend la brasserie en 1799. En 1836, Daniel prend le relais, son fils qui s'appelle aussi Daniel prend le relais en 1866. En 1898, Georg Michael puis en 1940 Johann Michael Gloßner sont aux commandes.
 Elle est à l'origine située au numéro 43, en 1883 au numéro 74, et actuellement Marktplatz 1.
